--- a/packages.xlsx
+++ b/packages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
   <si>
     <t>@angular-devkit/build-angular</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>12.2.17</t>
+  </si>
+  <si>
+    <t>Angular main version</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -342,6 +345,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,7 +655,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +665,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="B1" s="3">
         <v>19</v>
       </c>
